--- a/Doc/业务说明文档/01.单据转换配置说明.xlsx
+++ b/Doc/业务说明文档/01.单据转换配置说明.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="114">
   <si>
     <t>序号</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -421,31 +421,63 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>整车管理_整车库存</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>代办服务转其他应收</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>按揭登记转其他应收</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>按揭登记</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他应收</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>保险登记转其他应收</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>精品配件销售订单转销售增值税发票</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售增值税发票</t>
+  </si>
+  <si>
+    <t>销售增值税发票</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购增值税发票</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>整车采购入库转采购增值税发票</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>整车采购入库</t>
+  </si>
+  <si>
     <t>整车销售出库转销售增值税发票</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>整车销售订单转采购增值税发票</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>整车管理_整车库存</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <t>整车销售出库</t>
+  </si>
+  <si>
+    <t>整车销售订单</t>
   </si>
   <si>
     <t>整车销售订单转销售增值税发票</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>精品配件销售订单转销售增值税发票</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -700,74 +732,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -787,7 +751,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1066,10 +1030,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1101,7 +1065,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
-        <f>ROW()-1</f>
+        <f t="shared" ref="A2:A34" si="0">ROW()-1</f>
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -1119,17 +1083,17 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>63</v>
+        <v>100</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>101</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>59</v>
@@ -1137,17 +1101,17 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="16" t="s">
+      <c r="B4" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>63</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>90</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>59</v>
@@ -1155,17 +1119,17 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>64</v>
+      <c r="B5" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>91</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>59</v>
@@ -1173,17 +1137,17 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="17" t="s">
-        <v>98</v>
+      <c r="B6" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="17" t="s">
-        <v>91</v>
+      <c r="D6" s="16" t="s">
+        <v>63</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>59</v>
@@ -1191,17 +1155,17 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>55</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>59</v>
@@ -1209,53 +1173,53 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>74</v>
+      <c r="B8" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>55</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>80</v>
+        <v>91</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>80</v>
+        <v>93</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>80</v>
@@ -1263,163 +1227,179 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
+      <c r="B11" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>74</v>
+      </c>
       <c r="E11" s="17" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>58</v>
+      <c r="B12" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>84</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>59</v>
+        <v>85</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>7</v>
+      <c r="B13" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>7</v>
+      <c r="B14" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="17" t="s">
-        <v>102</v>
+      <c r="B15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="17" t="s">
-        <v>102</v>
+      <c r="B16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2" t="s">
-        <v>29</v>
+        <v>108</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>47</v>
+      <c r="B18" s="21" t="s">
+        <v>110</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>29</v>
+        <v>105</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>60</v>
+      <c r="B19" s="17" t="s">
+        <v>113</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>29</v>
@@ -1427,35 +1407,35 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>69</v>
+        <v>60</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>55</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="11" t="s">
-        <v>45</v>
+      <c r="D22" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>29</v>
@@ -1463,31 +1443,43 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2" t="s">
-        <v>29</v>
+      <c r="B23" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+      <c r="B24" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B25" s="17"/>
@@ -1497,7 +1489,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B26" s="17"/>
@@ -1507,7 +1499,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B27" s="17"/>
@@ -1517,7 +1509,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B28" s="17"/>
@@ -1527,7 +1519,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B29" s="17"/>
@@ -1537,7 +1529,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B30" s="17"/>
@@ -1547,7 +1539,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B31" s="17"/>
@@ -1557,7 +1549,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B32" s="17"/>
@@ -1567,7 +1559,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B33" s="17"/>
@@ -1577,7 +1569,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B34" s="17"/>
@@ -1587,7 +1579,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
-        <f>ROW()-1</f>
+        <f t="shared" ref="A35:A61" si="1">ROW()-1</f>
         <v>34</v>
       </c>
       <c r="B35" s="17"/>
@@ -1597,7 +1589,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="B36" s="17"/>
@@ -1607,7 +1599,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="B37" s="17"/>
@@ -1617,7 +1609,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="B38" s="17"/>
@@ -1627,7 +1619,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="B39" s="17"/>
@@ -1637,7 +1629,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="B40" s="17"/>
@@ -1647,7 +1639,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="B41" s="17"/>
@@ -1657,7 +1649,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="B42" s="17"/>
@@ -1667,7 +1659,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="B43" s="17"/>
@@ -1677,7 +1669,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="B44" s="17"/>
@@ -1687,7 +1679,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="B45" s="17"/>
@@ -1697,7 +1689,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="B46" s="17"/>
@@ -1707,7 +1699,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="B47" s="17"/>
@@ -1717,7 +1709,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="2">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="B48" s="17"/>
@@ -1727,7 +1719,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="B49" s="17"/>
@@ -1737,7 +1729,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="B50" s="17"/>
@@ -1747,7 +1739,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="B51" s="17"/>
@@ -1757,7 +1749,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" s="2">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="B52" s="17"/>
@@ -1767,7 +1759,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" s="2">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="B53" s="17"/>
@@ -1777,7 +1769,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" s="2">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="B54" s="17"/>
@@ -1787,7 +1779,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" s="2">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="B55" s="17"/>
@@ -1797,7 +1789,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" s="2">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="B56" s="17"/>
@@ -1807,7 +1799,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57" s="2">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="B57" s="17"/>
@@ -1817,7 +1809,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" s="2">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
       <c r="B58" s="17"/>
@@ -1827,7 +1819,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59" s="2">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="B59" s="17"/>
@@ -1837,13 +1829,23 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A60" s="2">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
       <c r="B60" s="17"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A61" s="2">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="B61" s="17"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
     </row>
   </sheetData>
   <sortState ref="A2:E59">
@@ -1851,19 +1853,19 @@
   </sortState>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B14" location="'01.整车订单转验收单'!A1" display="整车订单转验收单"/>
-    <hyperlink ref="B13" location="'02.整车订单转入库单'!A1" display="整车订单转入库单"/>
-    <hyperlink ref="B20" location="'05.整车销售订单转交车单'!A1" display="整车销售订单转交车单"/>
-    <hyperlink ref="B18" location="'04.整车销售订单转出库单'!A1" display="整车销售订单转出库单"/>
-    <hyperlink ref="B22" location="'03.整车销售订单转配车单'!A1" display="整车销售订单转配车单"/>
-    <hyperlink ref="B19" location="'06.整车销售订单转代办服务单'!A1" display="整车销售订单转代办服务单"/>
-    <hyperlink ref="B7" location="'07.代办服务单转上牌登记'!A1" display="代办服务单转上牌登记"/>
-    <hyperlink ref="B4" location="'08.代办服务单转保险登记'!A1" display="代办服务单转保险登记"/>
-    <hyperlink ref="B5" location="'09.代办服务单转按揭登记'!A1" display="代办服务单转按揭登记"/>
-    <hyperlink ref="B21" location="'10.整车销售订单转精品配件销售订单'!A1" display="整车销售订单转精品配件销售订单"/>
-    <hyperlink ref="B9" location="'11.精品配件销售订单转精品加装单'!A1" display="精品配件销售订单转精品加装单"/>
-    <hyperlink ref="B8" location="'12.精品加装单转车辆配置变更'!A1" display="精品加装单转车辆配置变更"/>
-    <hyperlink ref="B10" location="'13.精品配件销售订单转销售出库单'!A1" display="精品配件销售订单转销售出库单"/>
+    <hyperlink ref="B16" location="'01.整车订单转验收单'!A1" display="整车订单转验收单"/>
+    <hyperlink ref="B15" location="'02.整车订单转入库单'!A1" display="整车订单转入库单"/>
+    <hyperlink ref="B22" location="'05.整车销售订单转交车单'!A1" display="整车销售订单转交车单"/>
+    <hyperlink ref="B20" location="'04.整车销售订单转出库单'!A1" display="整车销售订单转出库单"/>
+    <hyperlink ref="B24" location="'03.整车销售订单转配车单'!A1" display="整车销售订单转配车单"/>
+    <hyperlink ref="B21" location="'06.整车销售订单转代办服务单'!A1" display="整车销售订单转代办服务单"/>
+    <hyperlink ref="B9" location="'07.代办服务单转上牌登记'!A1" display="代办服务单转上牌登记"/>
+    <hyperlink ref="B6" location="'08.代办服务单转保险登记'!A1" display="代办服务单转保险登记"/>
+    <hyperlink ref="B7" location="'09.代办服务单转按揭登记'!A1" display="代办服务单转按揭登记"/>
+    <hyperlink ref="B23" location="'10.整车销售订单转精品配件销售订单'!A1" display="整车销售订单转精品配件销售订单"/>
+    <hyperlink ref="B11" location="'11.精品配件销售订单转精品加装单'!A1" display="精品配件销售订单转精品加装单"/>
+    <hyperlink ref="B10" location="'12.精品加装单转车辆配置变更'!A1" display="精品加装单转车辆配置变更"/>
+    <hyperlink ref="B12" location="'13.精品配件销售订单转销售出库单'!A1" display="精品配件销售订单转销售出库单"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
